--- a/simulation_data/iterative_algorithm/i_error_level_13_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_13_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.90035526826654</v>
+        <v>87.94252624232051</v>
       </c>
       <c r="D2" t="n">
-        <v>19.57240712746376</v>
+        <v>20.81908562223844</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>85.94210323925935</v>
+        <v>87.92248603768873</v>
       </c>
       <c r="D3" t="n">
-        <v>17.31004904756661</v>
+        <v>18.23941303021626</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.96467343291812</v>
+        <v>87.80420541173837</v>
       </c>
       <c r="D4" t="n">
-        <v>18.53724641755712</v>
+        <v>19.99893020287985</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.47314266649312</v>
+        <v>85.29409925447142</v>
       </c>
       <c r="D5" t="n">
-        <v>16.78349827817415</v>
+        <v>17.24543184606973</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.51649163184931</v>
+        <v>83.49155148934146</v>
       </c>
       <c r="D6" t="n">
-        <v>17.78286672924409</v>
+        <v>20.87338190797833</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.16498427351746</v>
+        <v>83.79759949386154</v>
       </c>
       <c r="D7" t="n">
-        <v>20.47202201759697</v>
+        <v>18.74754421423266</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.55005471216406</v>
+        <v>87.27067074578389</v>
       </c>
       <c r="D8" t="n">
-        <v>20.26802991905958</v>
+        <v>18.54862533519494</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.84862255218708</v>
+        <v>80.47800966087395</v>
       </c>
       <c r="D9" t="n">
-        <v>18.0026723271145</v>
+        <v>17.88541533265188</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.17175696714501</v>
+        <v>81.74257137620826</v>
       </c>
       <c r="D10" t="n">
-        <v>19.7975978526802</v>
+        <v>17.90556532931272</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.1293804780816</v>
+        <v>81.43042667814979</v>
       </c>
       <c r="D11" t="n">
-        <v>19.11082097826462</v>
+        <v>19.10660264525685</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.91175420501867</v>
+        <v>77.87836192533823</v>
       </c>
       <c r="D12" t="n">
-        <v>18.68238859327616</v>
+        <v>16.44608849717411</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>72.96771431817186</v>
+        <v>79.47617661105515</v>
       </c>
       <c r="D13" t="n">
-        <v>17.40852788607236</v>
+        <v>17.80849868386584</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.5290364566177</v>
+        <v>74.41622191734174</v>
       </c>
       <c r="D14" t="n">
-        <v>19.53201411805783</v>
+        <v>19.89165081833546</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.16564027776568</v>
+        <v>79.47539841346801</v>
       </c>
       <c r="D15" t="n">
-        <v>18.35343275808991</v>
+        <v>15.81568481311051</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.62735933787158</v>
+        <v>76.58434808330041</v>
       </c>
       <c r="D16" t="n">
-        <v>19.75976510032557</v>
+        <v>19.41087522927653</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.66687152754238</v>
+        <v>77.07620931491954</v>
       </c>
       <c r="D17" t="n">
-        <v>17.79487309849414</v>
+        <v>18.0476673429018</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>70.3660801102868</v>
+        <v>72.48680207962475</v>
       </c>
       <c r="D18" t="n">
-        <v>21.34873102763784</v>
+        <v>16.91407032754887</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.7563732193621</v>
+        <v>74.43839423584353</v>
       </c>
       <c r="D19" t="n">
-        <v>20.17662027315781</v>
+        <v>18.27843851414867</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.7204835399516</v>
+        <v>71.76766147650676</v>
       </c>
       <c r="D20" t="n">
-        <v>19.22833205663105</v>
+        <v>19.3168052465128</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.75816084854699</v>
+        <v>66.38444799707571</v>
       </c>
       <c r="D21" t="n">
-        <v>17.69311559055418</v>
+        <v>20.23499400679977</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.98700348170058</v>
+        <v>71.42967371799946</v>
       </c>
       <c r="D22" t="n">
-        <v>18.50641949380553</v>
+        <v>19.98958944128371</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.66937409284104</v>
+        <v>68.21474192181483</v>
       </c>
       <c r="D23" t="n">
-        <v>17.97362312234703</v>
+        <v>17.8316267829733</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.14915012302681</v>
+        <v>69.08732092793208</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9131434863598</v>
+        <v>18.60723528637173</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.77927176246614</v>
+        <v>65.13462054333488</v>
       </c>
       <c r="D25" t="n">
-        <v>19.71821672367856</v>
+        <v>19.91751463939715</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.21421778361133</v>
+        <v>66.29435748676136</v>
       </c>
       <c r="D26" t="n">
-        <v>20.74674096857967</v>
+        <v>19.05558944640637</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.62396297307554</v>
+        <v>66.14640021224992</v>
       </c>
       <c r="D27" t="n">
-        <v>17.94348539567028</v>
+        <v>15.71207311181646</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.90262766146182</v>
+        <v>61.96035938530813</v>
       </c>
       <c r="D28" t="n">
-        <v>20.56424963962641</v>
+        <v>21.22559502152162</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.99304105970683</v>
+        <v>64.29197909967357</v>
       </c>
       <c r="D29" t="n">
-        <v>17.65880487739985</v>
+        <v>20.40047372366303</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.94896208521988</v>
+        <v>61.01103935050671</v>
       </c>
       <c r="D30" t="n">
-        <v>17.97321240049</v>
+        <v>18.11985288946013</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.53644591065235</v>
+        <v>62.95934120051772</v>
       </c>
       <c r="D31" t="n">
-        <v>19.06235993444052</v>
+        <v>19.57262839907113</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.95128833592016</v>
+        <v>60.02611478878654</v>
       </c>
       <c r="D32" t="n">
-        <v>18.29621854248665</v>
+        <v>20.34816138082547</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.83260745318531</v>
+        <v>61.69795904126698</v>
       </c>
       <c r="D33" t="n">
-        <v>17.99304790996221</v>
+        <v>20.03697970695968</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.9713233215583</v>
+        <v>56.06496143694463</v>
       </c>
       <c r="D34" t="n">
-        <v>18.26169653190354</v>
+        <v>18.69428703367626</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.27235606334316</v>
+        <v>56.48097187567416</v>
       </c>
       <c r="D35" t="n">
-        <v>19.38045635829154</v>
+        <v>19.93118554598526</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.30878737006022</v>
+        <v>55.50638554937146</v>
       </c>
       <c r="D36" t="n">
-        <v>21.11267410336508</v>
+        <v>20.01978551969822</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.19807953327372</v>
+        <v>51.32688842329321</v>
       </c>
       <c r="D37" t="n">
-        <v>21.21225635136895</v>
+        <v>20.55666686890826</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.57060562957571</v>
+        <v>56.65936323461495</v>
       </c>
       <c r="D38" t="n">
-        <v>18.94999617645661</v>
+        <v>20.55925821816491</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.68164461786822</v>
+        <v>51.60292748500338</v>
       </c>
       <c r="D39" t="n">
-        <v>18.89996816613421</v>
+        <v>18.3056669049569</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.67319554325623</v>
+        <v>52.58091546498989</v>
       </c>
       <c r="D40" t="n">
-        <v>17.45171155257791</v>
+        <v>20.34487255128077</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.70672880839259</v>
+        <v>51.0985474343946</v>
       </c>
       <c r="D41" t="n">
-        <v>19.74319895175456</v>
+        <v>21.05444353575367</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.10748569300692</v>
+        <v>49.69815998259414</v>
       </c>
       <c r="D42" t="n">
-        <v>21.1925014054146</v>
+        <v>19.01152864689577</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.55164330721392</v>
+        <v>50.3415684687921</v>
       </c>
       <c r="D43" t="n">
-        <v>19.48113832416714</v>
+        <v>18.6382108607926</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.22306151021468</v>
+        <v>47.91631778888031</v>
       </c>
       <c r="D44" t="n">
-        <v>19.55284368056147</v>
+        <v>19.34204312760829</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01092660116095</v>
+        <v>45.41264973356766</v>
       </c>
       <c r="D45" t="n">
-        <v>20.96366932050526</v>
+        <v>18.69086840497746</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>49.46461828982323</v>
+        <v>42.56351350936321</v>
       </c>
       <c r="D46" t="n">
-        <v>18.60278788330729</v>
+        <v>19.4107769357009</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.48835201714814</v>
+        <v>43.48357480655545</v>
       </c>
       <c r="D47" t="n">
-        <v>19.95703234505259</v>
+        <v>19.79924312562854</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.71448684791297</v>
+        <v>44.251749057657</v>
       </c>
       <c r="D48" t="n">
-        <v>18.52426648352778</v>
+        <v>17.44278924078405</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.70462719532086</v>
+        <v>39.6108015742131</v>
       </c>
       <c r="D49" t="n">
-        <v>21.56254979014783</v>
+        <v>20.81066306412773</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.58138876798014</v>
+        <v>45.17684753161071</v>
       </c>
       <c r="D50" t="n">
-        <v>19.85980474549682</v>
+        <v>21.02100925657288</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.04044183561054</v>
+        <v>40.77466846600462</v>
       </c>
       <c r="D51" t="n">
-        <v>18.43801951484418</v>
+        <v>20.56862283433876</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.9835459710995</v>
+        <v>41.62424914629284</v>
       </c>
       <c r="D52" t="n">
-        <v>21.26300793637297</v>
+        <v>20.32413961795565</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.95252078615208</v>
+        <v>39.77666370878441</v>
       </c>
       <c r="D53" t="n">
-        <v>21.72464683346848</v>
+        <v>17.85338468662715</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.28948140751495</v>
+        <v>37.96544325192765</v>
       </c>
       <c r="D54" t="n">
-        <v>20.69079556126686</v>
+        <v>18.60836079403904</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.44581916850328</v>
+        <v>39.19194240961665</v>
       </c>
       <c r="D55" t="n">
-        <v>17.51922057327663</v>
+        <v>19.52637216365508</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.67601168973807</v>
+        <v>35.77607511440868</v>
       </c>
       <c r="D56" t="n">
-        <v>18.89301155030301</v>
+        <v>17.48919971546133</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.28999494238921</v>
+        <v>32.72118463286327</v>
       </c>
       <c r="D57" t="n">
-        <v>18.57219834111401</v>
+        <v>24.48105651652145</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.89578493556353</v>
+        <v>32.53540448053636</v>
       </c>
       <c r="D58" t="n">
-        <v>21.07332657518289</v>
+        <v>20.24109681075627</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.1556709555467</v>
+        <v>32.58316009565061</v>
       </c>
       <c r="D59" t="n">
-        <v>19.09104023520082</v>
+        <v>18.74293045801676</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.19441963983838</v>
+        <v>29.88299778476033</v>
       </c>
       <c r="D60" t="n">
-        <v>20.5645391563185</v>
+        <v>20.78442799879131</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.71238270197073</v>
+        <v>32.29093464938162</v>
       </c>
       <c r="D61" t="n">
-        <v>21.26656511163429</v>
+        <v>20.41202040430765</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.56077816809927</v>
+        <v>31.81059879343383</v>
       </c>
       <c r="D62" t="n">
-        <v>20.45317246684495</v>
+        <v>19.20785840685833</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.22696418390937</v>
+        <v>25.90205753642499</v>
       </c>
       <c r="D63" t="n">
-        <v>19.6333049534918</v>
+        <v>19.83325644450287</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>25.46149375636644</v>
+        <v>27.60784748752422</v>
       </c>
       <c r="D64" t="n">
-        <v>22.24057085773896</v>
+        <v>20.64776705043055</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.75312936010683</v>
+        <v>26.06059313266349</v>
       </c>
       <c r="D65" t="n">
-        <v>16.70271111649703</v>
+        <v>18.48874306911362</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.21090200028835</v>
+        <v>22.18099379148467</v>
       </c>
       <c r="D66" t="n">
-        <v>18.66316744777746</v>
+        <v>19.51385595869029</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.57674456052396</v>
+        <v>21.89578667195333</v>
       </c>
       <c r="D67" t="n">
-        <v>20.75771360907073</v>
+        <v>18.33663289362067</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.8073234269853</v>
+        <v>25.97751234005431</v>
       </c>
       <c r="D68" t="n">
-        <v>18.64152293049402</v>
+        <v>18.14846120429696</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.17517087945068</v>
+        <v>20.2991544291685</v>
       </c>
       <c r="D69" t="n">
-        <v>21.3747615633659</v>
+        <v>18.2760202958527</v>
       </c>
     </row>
   </sheetData>
